--- a/analysis/ExData/Motion/CutData/31_DTW.xlsx
+++ b/analysis/ExData/Motion/CutData/31_DTW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
   <si>
     <t>Participant</t>
   </si>
@@ -31,7 +31,31 @@
     <t>Ebina</t>
   </si>
   <si>
+    <t>Hijikata</t>
+  </si>
+  <si>
+    <t>Kato</t>
+  </si>
+  <si>
+    <t>Kawai</t>
+  </si>
+  <si>
+    <t>Kitamichi</t>
+  </si>
+  <si>
     <t>Kusaka</t>
+  </si>
+  <si>
+    <t>Nakamura</t>
+  </si>
+  <si>
+    <t>Sakurai</t>
+  </si>
+  <si>
+    <t>Tsuruoka</t>
+  </si>
+  <si>
+    <t>Yamashita</t>
   </si>
   <si>
     <t>without feedback</t>
@@ -401,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,10 +453,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>-2644.889876748843</v>
@@ -446,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>-534.0907708432151</v>
@@ -463,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>-441.3055210545008</v>
@@ -480,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>-1035.729060720388</v>
+        <v>-1983.509038653583</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,13 +521,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>248.1704570244124</v>
+        <v>-1918.283038651445</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,13 +538,421 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>-1351.114111308773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>549.6004133122469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>-1777.305565666975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>-568.6250178769242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>-153.9403289873258</v>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>769.1352249462398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>-185.1711537119527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>-171.1686501760569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>1358.550763255747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>2212.474188837899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>909.5562147730825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>-1033.906401800537</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>237.6608675789921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>-150.318050736731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>-626.0881526629637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>-1746.279150544376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>979.0540610621183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>-287.4781394768129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>-2017.778784564787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>-861.1418325018522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>1038.624118420265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>2235.69107689576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>1333.772032481375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>342.7188563409977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>456.5364155604079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>-369.3280307460882</v>
       </c>
     </row>
   </sheetData>
